--- a/data/trans_bre/P3A_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P3A_R-Edad-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4,39; 11,46</t>
+          <t>4,47; 11,51</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>9,3; 16,68</t>
+          <t>9,34; 16,74</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>7,72; 17,61</t>
+          <t>7,42; 17,36</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>9,11; 30,34</t>
+          <t>8,34; 31,13</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>67,35; 393,7</t>
+          <t>74,04; 382,39</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>256,41; 1281,99</t>
+          <t>252,74; 1353,46</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>73,07; 315,27</t>
+          <t>69,94; 301,51</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>16,47; 73,9</t>
+          <t>15,65; 78,0</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>32,45; 41,62</t>
+          <t>32,5; 41,51</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>31,84; 41,74</t>
+          <t>31,59; 41,74</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>28,9; 39,12</t>
+          <t>29,18; 39,06</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>19,59; 32,43</t>
+          <t>19,98; 32,69</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>330,44; 666,45</t>
+          <t>321,31; 647,01</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>234,7; 437,67</t>
+          <t>238,4; 446,37</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>182,23; 370,61</t>
+          <t>193,63; 365,56</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>27,49; 53,61</t>
+          <t>27,48; 53,74</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>51,51; 59,95</t>
+          <t>51,13; 60,29</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>54,15; 62,5</t>
+          <t>54,09; 62,66</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>34,11; 43,42</t>
+          <t>34,33; 43,83</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>16,8; 24,3</t>
+          <t>16,68; 24,48</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>471,75; 912,97</t>
+          <t>469,23; 911,26</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>515,15; 921,48</t>
+          <t>504,06; 922,94</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>190,49; 326,92</t>
+          <t>186,17; 324,5</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>21,02; 33,19</t>
+          <t>20,81; 33,41</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>58,16; 67,78</t>
+          <t>59,12; 68,43</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>54,34; 63,75</t>
+          <t>54,2; 64,03</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>44,04; 53,79</t>
+          <t>43,69; 53,6</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>23,72; 45,3</t>
+          <t>23,51; 43,46</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>521,0; 1078,76</t>
+          <t>546,37; 1125,27</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>397,74; 698,37</t>
+          <t>382,08; 689,5</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>228,51; 376,08</t>
+          <t>224,14; 383,84</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>32,22; 86,99</t>
+          <t>31,62; 79,83</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>58,95; 69,47</t>
+          <t>59,05; 69,36</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>56,85; 67,52</t>
+          <t>55,84; 66,19</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>52,0; 62,56</t>
+          <t>52,23; 63,06</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>24,63; 32,01</t>
+          <t>24,55; 32,11</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>546,35; 1172,33</t>
+          <t>526,9; 1206,34</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>517,2; 1177,82</t>
+          <t>507,53; 1124,69</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>292,17; 520,74</t>
+          <t>289,51; 523,72</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>34,16; 49,13</t>
+          <t>34,12; 49,45</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>38,49; 48,39</t>
+          <t>38,21; 47,97</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>33,46; 42,59</t>
+          <t>33,51; 43,03</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>38,48; 48,9</t>
+          <t>38,55; 48,07</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>25,54; 34,95</t>
+          <t>25,63; 35,29</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>241,61; 447,75</t>
+          <t>239,17; 446,02</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>215,29; 405,06</t>
+          <t>218,7; 430,84</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>204,36; 353,77</t>
+          <t>204,97; 349,15</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>43,4; 65,09</t>
+          <t>43,92; 65,66</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>43,54; 47,47</t>
+          <t>43,64; 47,7</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>43,67; 47,54</t>
+          <t>43,75; 47,89</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>38,77; 43,27</t>
+          <t>39,01; 43,19</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>24,21; 30,33</t>
+          <t>24,07; 29,92</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>463,63; 623,0</t>
+          <t>462,41; 623,16</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>423,51; 558,03</t>
+          <t>423,76; 563,65</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>251,12; 323,52</t>
+          <t>253,95; 320,97</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>36,58; 49,89</t>
+          <t>36,28; 49,22</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P3A_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P3A_R-Edad-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -668,17 +668,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4,47; 11,51</t>
+          <t>4,27; 11,39</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>9,34; 16,74</t>
+          <t>9,35; 17,04</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>7,42; 17,36</t>
+          <t>7,98; 17,56</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -688,17 +688,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>74,04; 382,39</t>
+          <t>66,98; 369,47</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>252,74; 1353,46</t>
+          <t>248,06; 1365,52</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>69,94; 301,51</t>
+          <t>73,86; 305,3</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -768,17 +768,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>32,5; 41,51</t>
+          <t>32,93; 42,13</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>31,59; 41,74</t>
+          <t>31,38; 41,05</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>29,18; 39,06</t>
+          <t>28,92; 39,07</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -788,17 +788,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>321,31; 647,01</t>
+          <t>323,51; 627,63</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>238,4; 446,37</t>
+          <t>236,09; 430,12</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>193,63; 365,56</t>
+          <t>188,6; 360,3</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -868,17 +868,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>51,13; 60,29</t>
+          <t>51,37; 60,43</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>54,09; 62,66</t>
+          <t>54,01; 62,07</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>34,33; 43,83</t>
+          <t>34,28; 44,02</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -888,17 +888,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>469,23; 911,26</t>
+          <t>475,73; 898,26</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>504,06; 922,94</t>
+          <t>510,44; 903,75</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>186,17; 324,5</t>
+          <t>193,08; 333,03</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -968,17 +968,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>59,12; 68,43</t>
+          <t>58,22; 67,74</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>54,2; 64,03</t>
+          <t>54,51; 63,57</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>43,69; 53,6</t>
+          <t>43,81; 53,23</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -988,17 +988,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>546,37; 1125,27</t>
+          <t>544,45; 1109,17</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>382,08; 689,5</t>
+          <t>397,05; 702,25</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>224,14; 383,84</t>
+          <t>222,33; 370,65</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1068,17 +1068,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>59,05; 69,36</t>
+          <t>58,5; 69,12</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>55,84; 66,19</t>
+          <t>56,45; 66,94</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>52,23; 63,06</t>
+          <t>52,28; 62,72</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1088,17 +1088,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>526,9; 1206,34</t>
+          <t>548,22; 1230,51</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>507,53; 1124,69</t>
+          <t>522,95; 1173,53</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>289,51; 523,72</t>
+          <t>285,51; 526,51</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1168,17 +1168,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>38,21; 47,97</t>
+          <t>38,42; 47,98</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>33,51; 43,03</t>
+          <t>32,75; 42,39</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>38,55; 48,07</t>
+          <t>38,37; 48,15</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1188,17 +1188,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>239,17; 446,02</t>
+          <t>248,28; 457,91</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>218,7; 430,84</t>
+          <t>207,88; 405,7</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>204,97; 349,15</t>
+          <t>199,84; 351,04</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1268,17 +1268,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>43,64; 47,7</t>
+          <t>43,53; 47,67</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>43,75; 47,89</t>
+          <t>43,69; 47,61</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>39,01; 43,19</t>
+          <t>38,82; 43,16</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1288,17 +1288,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>462,41; 623,16</t>
+          <t>466,28; 628,88</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>423,76; 563,65</t>
+          <t>423,69; 556,42</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>253,95; 320,97</t>
+          <t>254,04; 326,23</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">

--- a/data/trans_bre/P3A_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P3A_R-Edad-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -530,7 +530,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Tareas del hogar realizadas por el/la entrevistado/a</t>
+          <t>Hogares en los que las tareas domésticas las realiza principalmente el/la entrevistado/a</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>7,77</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>12,79</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>12,8</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>20,0</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>176,23%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>572,76%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>166,96%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>42,08%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4,27; 11,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>9,35; 17,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>7,98; 17,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>8,34; 31,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>66,98; 369,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>248,06; 1365,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>73,86; 305,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>15,65; 78,0</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>37,23</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>36,53</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>34,33</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>26,78</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>452,55%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>326,3%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>264,58%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>40,49%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>32,93; 42,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>31,38; 41,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>28,92; 39,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>19,98; 32,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>323,51; 627,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>236,09; 430,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>188,6; 360,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>27,48; 53,74</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>56,03</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>58,46</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>39,13</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>20,42</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>658,13%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>685,83%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>248,96%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>26,58%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>51,37; 60,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>54,01; 62,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>34,28; 44,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>16,68; 24,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>475,73; 898,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>510,44; 903,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>193,08; 333,03</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>20,81; 33,41</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>63,44</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>59,36</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>48,79</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>29,94</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>756,42%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>523,55%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>290,63%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>44,49%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>58,22; 67,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>54,51; 63,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>43,81; 53,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>23,51; 43,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>544,45; 1109,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>397,05; 702,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>222,33; 370,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>31,62; 79,83</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>64,25</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>61,79</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>57,71</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>28,47</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>810,03%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>758,85%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>393,83%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>41,58%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>58,5; 69,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>56,45; 66,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>52,28; 62,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>24,55; 32,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>548,22; 1230,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>522,95; 1173,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>285,51; 526,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>34,12; 49,45</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>43,15</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>38,15</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>43,66</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>29,62</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>329,73%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>299,51%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>272,05%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>52,59%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>38,42; 47,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>32,75; 42,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>38,37; 48,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>25,63; 35,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>248,28; 457,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>207,88; 405,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>199,84; 351,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>43,92; 65,66</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>45,68</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>45,68</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>40,94</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>26,4</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>541,09%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>487,47%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>285,15%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>40,95%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>43,53; 47,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>43,69; 47,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>38,82; 43,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>24,07; 29,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>466,28; 628,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>423,69; 556,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>254,04; 326,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>36,28; 49,22</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P3A_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P3A_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -910,7 +910,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1010,7 +1010,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1110,7 +1110,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1210,7 +1210,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1308,14 +1308,114 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1325,6 +1425,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
